--- a/Statistics/Lab Files/All_Question.xlsx
+++ b/Statistics/Lab Files/All_Question.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CURAJ COLLEGE\First Semester\Statistics\Lab Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EDF17D-7B83-4EFC-99C7-129F6B724D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C23DB91-BE66-4D06-A883-821E1052E77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,14 +21,6 @@
     <sheet name="Question 6" sheetId="8" r:id="rId6"/>
     <sheet name="Question 7" sheetId="9" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Question 6'!$A$2:$A$9</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Question 6'!$C$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Question 6'!$C$2:$C$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Question 6'!$A$2:$A$9</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Question 6'!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Question 6'!$C$2:$C$9</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -944,7 +936,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1129,13 +1121,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1145,18 +1167,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1177,25 +1187,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1351,16 +1361,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1369,46 +1376,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9563,40 +9543,40 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="109"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="89"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="110"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -9660,17 +9640,17 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="100"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="3"/>
       <c r="O6" s="1"/>
     </row>
@@ -9681,17 +9661,17 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="100"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="94"/>
       <c r="N7" s="3"/>
       <c r="O7" s="1"/>
     </row>
@@ -9706,16 +9686,16 @@
         <v>4</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="85">
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="95">
         <f>MEDIAN(B5:B24)</f>
         <v>20.5</v>
       </c>
-      <c r="K8" s="87"/>
+      <c r="K8" s="97"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -9747,17 +9727,17 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="100"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="94"/>
       <c r="N10" s="3"/>
       <c r="O10" s="1"/>
     </row>
@@ -9772,17 +9752,17 @@
         <v>4</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="85" t="str">
+      <c r="G11" s="95" t="str">
         <f>G8</f>
         <v>Median age</v>
       </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="85">
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="95">
         <f>MEDIAN(B5:B24)</f>
         <v>20.5</v>
       </c>
-      <c r="K11" s="87"/>
+      <c r="K11" s="97"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -9797,16 +9777,16 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="90" t="s">
+      <c r="G12" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="85">
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="95">
         <f>MODE(B5:B24)</f>
         <v>20</v>
       </c>
-      <c r="K12" s="87"/>
+      <c r="K12" s="97"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -9838,17 +9818,17 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="98" t="s">
+      <c r="E14" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="100"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="94"/>
       <c r="N14" s="3"/>
       <c r="O14" s="1"/>
     </row>
@@ -9863,16 +9843,16 @@
         <v>4</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="85" t="s">
+      <c r="G15" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="85">
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="95">
         <f>AVERAGE(B5:B24)</f>
         <v>22</v>
       </c>
-      <c r="K15" s="87"/>
+      <c r="K15" s="97"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -9887,16 +9867,16 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="85" t="s">
+      <c r="G16" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="85">
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="95">
         <f>GEOMEAN(B5:B24)</f>
         <v>21.66073390470455</v>
       </c>
-      <c r="K16" s="87"/>
+      <c r="K16" s="97"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -9911,16 +9891,16 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="90" t="s">
+      <c r="G17" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="90">
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="104">
         <f>HARMEAN(B5:B24)</f>
         <v>21.38338338403128</v>
       </c>
-      <c r="K17" s="89"/>
+      <c r="K17" s="110"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -9952,17 +9932,17 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="92" t="s">
+      <c r="E19" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="94"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="100"/>
       <c r="N19" s="3"/>
       <c r="O19" s="1"/>
     </row>
@@ -9973,15 +9953,15 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="97"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="103"/>
       <c r="N20" s="3"/>
       <c r="O20" s="1"/>
     </row>
@@ -9998,15 +9978,15 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="85" t="s">
+      <c r="I21" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="86"/>
-      <c r="K21" s="85">
+      <c r="J21" s="96"/>
+      <c r="K21" s="95">
         <f>SUM(G23:G44)/22</f>
         <v>21.727272727272727</v>
       </c>
-      <c r="L21" s="87"/>
+      <c r="L21" s="97"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="1"/>
@@ -10024,15 +10004,15 @@
         <v>1</v>
       </c>
       <c r="H22" s="3"/>
-      <c r="I22" s="85" t="s">
+      <c r="I22" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="86"/>
-      <c r="K22" s="85">
+      <c r="J22" s="96"/>
+      <c r="K22" s="95">
         <f>MEDIAN(G23:G44)</f>
         <v>20</v>
       </c>
-      <c r="L22" s="87"/>
+      <c r="L22" s="97"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="1"/>
@@ -10050,15 +10030,15 @@
         <v>18</v>
       </c>
       <c r="H23" s="3"/>
-      <c r="I23" s="85" t="s">
+      <c r="I23" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="86"/>
-      <c r="K23" s="85">
+      <c r="J23" s="96"/>
+      <c r="K23" s="95">
         <f>MODE(G23:G44)</f>
         <v>19</v>
       </c>
-      <c r="L23" s="87"/>
+      <c r="L23" s="97"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="1"/>
@@ -10076,15 +10056,15 @@
         <v>19</v>
       </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="82" t="s">
+      <c r="I24" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="84"/>
-      <c r="K24" s="82">
+      <c r="J24" s="108"/>
+      <c r="K24" s="106">
         <f>HARMEAN(G23:G44)</f>
         <v>21.142282121311489</v>
       </c>
-      <c r="L24" s="83"/>
+      <c r="L24" s="107"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="1"/>
@@ -10100,15 +10080,15 @@
         <v>19</v>
       </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="85" t="s">
+      <c r="I25" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="86"/>
-      <c r="K25" s="85">
+      <c r="J25" s="96"/>
+      <c r="K25" s="95">
         <f>GEOMEAN(G23:G44)</f>
         <v>21.404183284634982</v>
       </c>
-      <c r="L25" s="87"/>
+      <c r="L25" s="97"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="1"/>
@@ -10510,19 +10490,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E7:M7"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="E19:M20"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="E14:M14"/>
-    <mergeCell ref="G15:I15"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
@@ -10539,6 +10506,19 @@
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E19:M20"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="E14:M14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10559,75 +10539,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="107"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="113"/>
       <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="108"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="110"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="116"/>
       <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="111"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="113"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="119"/>
       <c r="O3" s="12"/>
     </row>
     <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="116"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="122"/>
       <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10711,10 +10691,10 @@
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="118"/>
+      <c r="C8" s="124"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
@@ -11061,56 +11041,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="121"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="127"/>
       <c r="M1" s="25"/>
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
       <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="122"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="124"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="130"/>
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="125"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="127"/>
+      <c r="A3" s="131"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="133"/>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
@@ -11284,10 +11264,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="128"/>
+      <c r="C11" s="134"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -11642,72 +11622,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="131"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="137"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="132"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="134"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="140"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="135"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="137"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="143"/>
     </row>
     <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -11733,18 +11713,18 @@
       <c r="F5" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="144" t="s">
+      <c r="K5" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="145"/>
-      <c r="P5" s="145"/>
-      <c r="Q5" s="145"/>
-      <c r="R5" s="145"/>
-      <c r="S5" s="145"/>
-      <c r="T5" s="146"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="152"/>
     </row>
     <row r="6" spans="1:20" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35">
@@ -11769,16 +11749,16 @@
         <f>ABS(C6-$I$13)</f>
         <v>0.27800000000000002</v>
       </c>
-      <c r="K6" s="147"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="148"/>
-      <c r="P6" s="148"/>
-      <c r="Q6" s="148"/>
-      <c r="R6" s="148"/>
-      <c r="S6" s="148"/>
-      <c r="T6" s="149"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="154"/>
+      <c r="N6" s="154"/>
+      <c r="O6" s="154"/>
+      <c r="P6" s="154"/>
+      <c r="Q6" s="154"/>
+      <c r="R6" s="154"/>
+      <c r="S6" s="154"/>
+      <c r="T6" s="155"/>
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="35">
@@ -11803,16 +11783,16 @@
         <f t="shared" ref="F7:F56" si="3">ABS(C7-$I$13)</f>
         <v>0.23700000000000002</v>
       </c>
-      <c r="K7" s="147"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="148"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="148"/>
-      <c r="R7" s="148"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="149"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="154"/>
+      <c r="M7" s="154"/>
+      <c r="N7" s="154"/>
+      <c r="O7" s="154"/>
+      <c r="P7" s="154"/>
+      <c r="Q7" s="154"/>
+      <c r="R7" s="154"/>
+      <c r="S7" s="154"/>
+      <c r="T7" s="155"/>
     </row>
     <row r="8" spans="1:20" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35">
@@ -11837,16 +11817,16 @@
         <f t="shared" si="3"/>
         <v>0.22400000000000003</v>
       </c>
-      <c r="K8" s="147"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="148"/>
-      <c r="N8" s="148"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="148"/>
-      <c r="R8" s="148"/>
-      <c r="S8" s="148"/>
-      <c r="T8" s="149"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="154"/>
+      <c r="N8" s="154"/>
+      <c r="O8" s="154"/>
+      <c r="P8" s="154"/>
+      <c r="Q8" s="154"/>
+      <c r="R8" s="154"/>
+      <c r="S8" s="154"/>
+      <c r="T8" s="155"/>
     </row>
     <row r="9" spans="1:20" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35">
@@ -11871,16 +11851,16 @@
         <f t="shared" si="3"/>
         <v>0.22300000000000003</v>
       </c>
-      <c r="K9" s="147"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="148"/>
-      <c r="N9" s="148"/>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="148"/>
-      <c r="R9" s="148"/>
-      <c r="S9" s="148"/>
-      <c r="T9" s="149"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="154"/>
+      <c r="M9" s="154"/>
+      <c r="N9" s="154"/>
+      <c r="O9" s="154"/>
+      <c r="P9" s="154"/>
+      <c r="Q9" s="154"/>
+      <c r="R9" s="154"/>
+      <c r="S9" s="154"/>
+      <c r="T9" s="155"/>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="35">
@@ -11905,16 +11885,16 @@
         <f t="shared" si="3"/>
         <v>0.21700000000000003</v>
       </c>
-      <c r="K10" s="150"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="151"/>
-      <c r="P10" s="151"/>
-      <c r="Q10" s="151"/>
-      <c r="R10" s="151"/>
-      <c r="S10" s="151"/>
-      <c r="T10" s="152"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="157"/>
+      <c r="M10" s="157"/>
+      <c r="N10" s="157"/>
+      <c r="O10" s="157"/>
+      <c r="P10" s="157"/>
+      <c r="Q10" s="157"/>
+      <c r="R10" s="157"/>
+      <c r="S10" s="157"/>
+      <c r="T10" s="158"/>
     </row>
     <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35">
@@ -12439,11 +12419,11 @@
         <f t="shared" si="3"/>
         <v>4.3000000000000038E-2</v>
       </c>
-      <c r="G31" s="138" t="s">
+      <c r="G31" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="139"/>
-      <c r="I31" s="140"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="146"/>
       <c r="J31" s="30">
         <f>AVERAGE(D6:D56)</f>
         <v>0.35986664821222603</v>
@@ -12472,11 +12452,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="153" t="s">
+      <c r="G32" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="154"/>
-      <c r="I32" s="155"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="161"/>
       <c r="J32" s="30">
         <f>SQRT(J31)</f>
         <v>0.59988886321736801</v>
@@ -12505,12 +12485,12 @@
         <f t="shared" si="3"/>
         <v>3.2999999999999974E-2</v>
       </c>
-      <c r="G33" s="138" t="s">
+      <c r="G33" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="140"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="146"/>
       <c r="K33" s="30">
         <f>AVERAGE(E6:E56)</f>
         <v>0.4464313725490196</v>
@@ -12539,12 +12519,12 @@
         <f t="shared" si="3"/>
         <v>8.6999999999999966E-2</v>
       </c>
-      <c r="G34" s="138" t="s">
+      <c r="G34" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="H34" s="139"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="140"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="146"/>
       <c r="K34" s="30">
         <f>AVERAGE(F6:F56)</f>
         <v>0.3987450980392156</v>
@@ -13107,12 +13087,12 @@
       <c r="A58" t="s">
         <v>45</v>
       </c>
-      <c r="H58" s="141" t="s">
+      <c r="H58" s="147" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H59" s="142"/>
+      <c r="H59" s="148"/>
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="35" t="s">
@@ -13121,7 +13101,7 @@
       <c r="D60" t="s">
         <v>51</v>
       </c>
-      <c r="H60" s="143"/>
+      <c r="H60" s="149"/>
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="33" t="s">
@@ -14731,16 +14711,16 @@
       <c r="A1" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="158" t="s">
+      <c r="C1" s="162" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="159"/>
-      <c r="F1" s="158" t="s">
+      <c r="D1" s="163"/>
+      <c r="F1" s="162" t="s">
         <v>59</v>
       </c>
       <c r="G1" s="164"/>
       <c r="H1" s="164"/>
-      <c r="I1" s="159"/>
+      <c r="I1" s="163"/>
       <c r="J1" s="69" t="s">
         <v>67</v>
       </c>
@@ -14768,14 +14748,14 @@
         <f>COUNT(A2:A3)</f>
         <v>2</v>
       </c>
-      <c r="F2" s="160" t="s">
+      <c r="F2" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161">
+      <c r="G2" s="166"/>
+      <c r="H2" s="166">
         <v>0</v>
       </c>
-      <c r="I2" s="163"/>
+      <c r="I2" s="168"/>
       <c r="J2" s="74">
         <v>5</v>
       </c>
@@ -14806,15 +14786,15 @@
         <f>COUNT(A4:A6)</f>
         <v>3</v>
       </c>
-      <c r="F3" s="165" t="s">
+      <c r="F3" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161">
+      <c r="G3" s="166"/>
+      <c r="H3" s="166">
         <f>SUM(D2:D5)</f>
         <v>9</v>
       </c>
-      <c r="I3" s="163"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="74">
         <v>15</v>
       </c>
@@ -14845,15 +14825,15 @@
         <f>COUNT(A7:A8)</f>
         <v>2</v>
       </c>
-      <c r="F4" s="160" t="s">
+      <c r="F4" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161">
+      <c r="G4" s="166"/>
+      <c r="H4" s="166">
         <f>SUM(D6:D14)</f>
         <v>22</v>
       </c>
-      <c r="I4" s="163"/>
+      <c r="I4" s="168"/>
       <c r="J4" s="74">
         <v>25</v>
       </c>
@@ -14884,15 +14864,15 @@
         <f>COUNT(A9:A10)</f>
         <v>2</v>
       </c>
-      <c r="F5" s="160" t="s">
+      <c r="F5" s="165" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161">
+      <c r="G5" s="166"/>
+      <c r="H5" s="166">
         <f>SUM(D15:D24)</f>
         <v>85</v>
       </c>
-      <c r="I5" s="163"/>
+      <c r="I5" s="168"/>
       <c r="J5" s="74">
         <v>35</v>
       </c>
@@ -14924,15 +14904,15 @@
         <f>COUNT(A11:A12)</f>
         <v>2</v>
       </c>
-      <c r="F6" s="160" t="s">
+      <c r="F6" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161">
+      <c r="G6" s="166"/>
+      <c r="H6" s="166">
         <f>SUM(D25:D34)</f>
         <v>95</v>
       </c>
-      <c r="I6" s="163"/>
+      <c r="I6" s="168"/>
       <c r="J6" s="74">
         <v>45</v>
       </c>
@@ -14964,15 +14944,15 @@
         <f>COUNT(A13:A14)</f>
         <v>2</v>
       </c>
-      <c r="F7" s="160" t="s">
+      <c r="F7" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161">
+      <c r="G7" s="166"/>
+      <c r="H7" s="166">
         <f>SUM(D35:D43)</f>
         <v>34</v>
       </c>
-      <c r="I7" s="163"/>
+      <c r="I7" s="168"/>
       <c r="J7" s="74">
         <v>55</v>
       </c>
@@ -15004,15 +14984,15 @@
         <f>COUNT(A15:A17)</f>
         <v>3</v>
       </c>
-      <c r="F8" s="162" t="s">
+      <c r="F8" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156">
+      <c r="G8" s="169"/>
+      <c r="H8" s="169">
         <f>SUM(D44:D47)</f>
         <v>5</v>
       </c>
-      <c r="I8" s="157"/>
+      <c r="I8" s="170"/>
       <c r="J8" s="76">
         <v>65</v>
       </c>
@@ -15043,11 +15023,11 @@
         <f>COUNT(A18:A21)</f>
         <v>4</v>
       </c>
-      <c r="H9" s="158">
+      <c r="H9" s="162">
         <f>SUM(H2:I8)</f>
         <v>250</v>
       </c>
-      <c r="I9" s="159"/>
+      <c r="I9" s="163"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="35">
@@ -16548,14 +16528,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H8:I8"/>
@@ -16565,6 +16537,14 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -16592,10 +16572,10 @@
       <c r="A1" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="169" t="s">
+      <c r="C1" s="85" t="s">
         <v>82</v>
       </c>
     </row>
@@ -16603,7 +16583,7 @@
       <c r="A2" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="167">
+      <c r="B2" s="83">
         <v>4</v>
       </c>
       <c r="C2" s="38">
@@ -16614,7 +16594,7 @@
       <c r="A3" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="168">
+      <c r="B3" s="84">
         <v>6</v>
       </c>
       <c r="C3" s="38">
@@ -16625,7 +16605,7 @@
       <c r="A4" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="168">
+      <c r="B4" s="84">
         <v>10</v>
       </c>
       <c r="C4" s="38">
@@ -16636,7 +16616,7 @@
       <c r="A5" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="168">
+      <c r="B5" s="84">
         <v>26</v>
       </c>
       <c r="C5" s="38">
@@ -16647,7 +16627,7 @@
       <c r="A6" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="168">
+      <c r="B6" s="84">
         <v>24</v>
       </c>
       <c r="C6" s="38">
@@ -16658,7 +16638,7 @@
       <c r="A7" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="168">
+      <c r="B7" s="84">
         <v>15</v>
       </c>
       <c r="C7" s="38">
@@ -16669,7 +16649,7 @@
       <c r="A8" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="168">
+      <c r="B8" s="84">
         <v>10</v>
       </c>
       <c r="C8" s="38">
@@ -16680,7 +16660,7 @@
       <c r="A9" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="168">
+      <c r="B9" s="84">
         <v>5</v>
       </c>
       <c r="C9" s="38">
@@ -16691,7 +16671,7 @@
       <c r="B12" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="170">
+      <c r="C12" s="35">
         <v>25</v>
       </c>
     </row>
@@ -16699,7 +16679,7 @@
       <c r="B13" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="170">
+      <c r="C13" s="35">
         <v>50</v>
       </c>
     </row>
@@ -16707,7 +16687,7 @@
       <c r="B14" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="170">
+      <c r="C14" s="35">
         <v>75</v>
       </c>
     </row>
@@ -16715,7 +16695,7 @@
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="170">
+      <c r="C16" s="35">
         <v>50</v>
       </c>
     </row>
@@ -16731,7 +16711,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16744,16 +16724,16 @@
       <c r="A1" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="82" t="s">
         <v>91</v>
       </c>
       <c r="C1" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="171" t="s">
+      <c r="D1" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="171" t="s">
+      <c r="E1" s="59" t="s">
         <v>94</v>
       </c>
     </row>
@@ -16761,10 +16741,10 @@
       <c r="A2" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="167">
+      <c r="B2" s="83">
         <v>4</v>
       </c>
-      <c r="C2" s="167">
+      <c r="C2" s="83">
         <f>(145+150)/2</f>
         <v>147.5</v>
       </c>
@@ -16780,10 +16760,10 @@
       <c r="A3" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="168">
+      <c r="B3" s="84">
         <v>6</v>
       </c>
-      <c r="C3" s="168">
+      <c r="C3" s="84">
         <f>(150+155)/2</f>
         <v>152.5</v>
       </c>
@@ -16799,10 +16779,10 @@
       <c r="A4" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="168">
+      <c r="B4" s="84">
         <v>28</v>
       </c>
-      <c r="C4" s="168">
+      <c r="C4" s="84">
         <f>(155+160)/2</f>
         <v>157.5</v>
       </c>
@@ -16818,10 +16798,10 @@
       <c r="A5" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="168">
+      <c r="B5" s="84">
         <v>58</v>
       </c>
-      <c r="C5" s="168">
+      <c r="C5" s="84">
         <f>(160+165)/2</f>
         <v>162.5</v>
       </c>
@@ -16838,10 +16818,10 @@
       <c r="A6" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="168">
+      <c r="B6" s="84">
         <v>64</v>
       </c>
-      <c r="C6" s="168">
+      <c r="C6" s="84">
         <f>(165+170)/2</f>
         <v>167.5</v>
       </c>
@@ -16861,10 +16841,10 @@
       <c r="A7" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="168">
+      <c r="B7" s="84">
         <v>30</v>
       </c>
-      <c r="C7" s="168">
+      <c r="C7" s="84">
         <f>(170+175)/2</f>
         <v>172.5</v>
       </c>
@@ -16881,10 +16861,10 @@
       <c r="A8" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="168">
+      <c r="B8" s="84">
         <v>5</v>
       </c>
-      <c r="C8" s="168">
+      <c r="C8" s="84">
         <f>(175+180)/2</f>
         <v>177.5</v>
       </c>
@@ -16898,26 +16878,26 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="172" t="s">
+      <c r="A9" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="173">
+      <c r="B9" s="87">
         <v>5</v>
       </c>
-      <c r="C9" s="173">
+      <c r="C9" s="87">
         <f>(180+185)/2</f>
         <v>182.5</v>
       </c>
-      <c r="D9" s="172">
+      <c r="D9" s="86">
         <f t="shared" si="0"/>
         <v>912.5</v>
       </c>
-      <c r="E9" s="172">
+      <c r="E9" s="86">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="175" t="s">
+      <c r="A10" s="50" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="52">
@@ -16925,7 +16905,7 @@
         <v>200</v>
       </c>
       <c r="C10" s="52"/>
-      <c r="D10" s="174">
+      <c r="D10" s="66">
         <f>SUM(D2:D9)</f>
         <v>33035</v>
       </c>
